--- a/biology/Botanique/Omphale_épingle/Omphale_épingle.xlsx
+++ b/biology/Botanique/Omphale_épingle/Omphale_épingle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Omphale_%C3%A9pingle</t>
+          <t>Omphale_épingle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rickenella fibula
 Rickenella fibula (omphale épingle, omphale aiguille ou omphale bibelot) est une espèce de champignons (Fungi) basidiomycètes de la famille des Tricholomataceae.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Omphale_%C3%A9pingle</t>
+          <t>Omphale_épingle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau de 0,5 à 1,5 cm de diamètre, jaune orangé, déprimé et plus foncé au centre, légèrement sillonné radialement.
 Lames blanches à jaune pâle, décurrentes. Sporée blanche.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Omphale_%C3%A9pingle</t>
+          <t>Omphale_épingle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez commun, Rickenella fibula pousse toute l'année dans l'herbe rase ou la mousse.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Omphale_%C3%A9pingle</t>
+          <t>Omphale_épingle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon comestible mais trop ténu pour être utilisé.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Omphale_%C3%A9pingle</t>
+          <t>Omphale_épingle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Rickenella et les genres proches comptent des dizaines d'espèces assez similaires. Rickenella fibula est la plus commune dans les pelouses des jardins après la pluie ou la rosée. Sa taille très petite évite aussi toute possibilité de confusion avec le laccaire laqué ou le marasme des Oréades.
 </t>
